--- a/src/test/resources/files/addpublisher.xlsx
+++ b/src/test/resources/files/addpublisher.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uploadtest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\JMS\src\test\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="71">
   <si>
     <t>sakthi@pdmrindia.com</t>
   </si>
@@ -164,18 +164,12 @@
     <t>test</t>
   </si>
   <si>
-    <t>manual</t>
-  </si>
-  <si>
     <t>Automation</t>
   </si>
   <si>
     <t>Selenium</t>
   </si>
   <si>
-    <t>Playwright</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -183,12 +177,6 @@
   </si>
   <si>
     <t>Se</t>
-  </si>
-  <si>
-    <t>PRT</t>
-  </si>
-  <si>
-    <t>ML</t>
   </si>
   <si>
     <t>AT</t>
@@ -692,7 +680,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -793,18 +781,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -824,16 +812,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -841,13 +829,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -870,15 +858,15 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -898,18 +886,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1066,7 +1054,7 @@
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -1233,26 +1221,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1279,18 +1267,18 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -1303,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,42 +1312,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1418,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -1566,22 +1522,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1605,17 +1561,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1638,30 +1594,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
